--- a/Motet Data.xlsx
+++ b/Motet Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/2019-2020/Early Music History/Music-130-Motet-Research-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC2D90C-53D0-6345-8500-BC2442947719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E518D2-B715-5246-8107-4CE31FD3D36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{8C21ED41-7C2E-594B-B8D0-CB9486620284}"/>
   </bookViews>
@@ -1133,15 +1133,6 @@
   <si>
     <t>The thief cometh not, but to steal
 and to kill and to destroy.</t>
-  </si>
-  <si>
-    <t>Vos pastores adulteri
-et veri mercenarij.
-successores Luciferi
-Christi pseudovicarij
-vicini dato muneri
-a vero semper devij
-ventris vacatis operi.</t>
   </si>
   <si>
     <t>Oh you adulterous shepherds.
@@ -1606,6 +1597,15 @@
 illam non videbitis
 gloriam quam cupitis.
 vos eya properate!</t>
+  </si>
+  <si>
+    <t>Vos pastores adulteri
+et veri mercenarii.
+successores Luciferi
+Christi pseudovicarii
+vicini dato muneri
+a vero semper devii
+ventris vacatis operi.</t>
   </si>
 </sst>
 </file>
@@ -1981,9 +1981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F45D92-CB40-FE41-8792-93EF46EAC244}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2031,7 +2031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f>A11 + 1</f>
         <v>11</v>
@@ -2347,10 +2347,10 @@
         <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>93</v>
@@ -2359,7 +2359,7 @@
         <v>92</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>94</v>
@@ -2380,21 +2380,21 @@
         <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -2409,25 +2409,25 @@
         <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -2442,25 +2442,25 @@
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -2475,25 +2475,25 @@
         <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Motet Data.xlsx
+++ b/Motet Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/2019-2020/Early Music History/Music-130-Motet-Research-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E518D2-B715-5246-8107-4CE31FD3D36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B80E5-8EA0-EE42-BE0A-A38B8794937E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{8C21ED41-7C2E-594B-B8D0-CB9486620284}"/>
   </bookViews>
@@ -1981,9 +1981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F45D92-CB40-FE41-8792-93EF46EAC244}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2031,7 +2031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f>A11 + 1</f>
         <v>11</v>

--- a/Motet Data.xlsx
+++ b/Motet Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/2019-2020/Early Music History/Music-130-Motet-Research-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01B80E5-8EA0-EE42-BE0A-A38B8794937E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E143E1CC-2CC7-8E42-A1F5-39623B22F3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{8C21ED41-7C2E-594B-B8D0-CB9486620284}"/>
   </bookViews>
@@ -1981,9 +1981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F45D92-CB40-FE41-8792-93EF46EAC244}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2095,7 +2095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
